--- a/data/pca/factorExposure/factorExposure_2017-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01924942843881323</v>
+        <v>0.01158558890870117</v>
       </c>
       <c r="C2">
-        <v>-0.01627813386364014</v>
+        <v>-0.04216578384389943</v>
       </c>
       <c r="D2">
-        <v>0.03432471190576474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03035335805154023</v>
+      </c>
+      <c r="E2">
+        <v>-0.04229474242871029</v>
+      </c>
+      <c r="F2">
+        <v>-0.00436032484782718</v>
+      </c>
+      <c r="G2">
+        <v>-0.1060248192536267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01719846256328042</v>
+        <v>0.04011534927505137</v>
       </c>
       <c r="C3">
-        <v>-0.00129928236548546</v>
+        <v>-0.1001388773056397</v>
       </c>
       <c r="D3">
-        <v>0.08474017513459717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0179275233372945</v>
+      </c>
+      <c r="E3">
+        <v>-0.1018854877567407</v>
+      </c>
+      <c r="F3">
+        <v>-0.01218036942473657</v>
+      </c>
+      <c r="G3">
+        <v>-0.1469002173086139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02817163317452454</v>
+        <v>0.05552340878457873</v>
       </c>
       <c r="C4">
-        <v>-0.009834825105700136</v>
+        <v>-0.06781671664364726</v>
       </c>
       <c r="D4">
-        <v>0.08489430032806904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02514703502054242</v>
+      </c>
+      <c r="E4">
+        <v>-0.03933784934135116</v>
+      </c>
+      <c r="F4">
+        <v>0.00403216635299576</v>
+      </c>
+      <c r="G4">
+        <v>-0.1005646309747919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.007963706015180866</v>
+        <v>0.0357922531554441</v>
       </c>
       <c r="C6">
-        <v>-0.01257184159436393</v>
+        <v>-0.05104397023934962</v>
       </c>
       <c r="D6">
-        <v>0.0683148711737782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01756364944864805</v>
+      </c>
+      <c r="E6">
+        <v>-0.04331703051993561</v>
+      </c>
+      <c r="F6">
+        <v>0.002279885585105526</v>
+      </c>
+      <c r="G6">
+        <v>-0.08727429305477864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.00211058727018707</v>
+        <v>0.02063653566118615</v>
       </c>
       <c r="C7">
-        <v>-0.01440637116644595</v>
+        <v>-0.03977134672187496</v>
       </c>
       <c r="D7">
-        <v>0.03736066523633891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01410737503191266</v>
+      </c>
+      <c r="E7">
+        <v>-0.007736612206648578</v>
+      </c>
+      <c r="F7">
+        <v>-0.005639044030137066</v>
+      </c>
+      <c r="G7">
+        <v>-0.1232275365708006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004063876332324315</v>
+        <v>0.00323875252671714</v>
       </c>
       <c r="C8">
-        <v>-0.002977526494455813</v>
+        <v>-0.02424230886002232</v>
       </c>
       <c r="D8">
-        <v>-0.0108749472105883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004161132216126542</v>
+      </c>
+      <c r="E8">
+        <v>-0.03209760459470241</v>
+      </c>
+      <c r="F8">
+        <v>0.001629737759651573</v>
+      </c>
+      <c r="G8">
+        <v>-0.07113779464789045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01033017446629301</v>
+        <v>0.03288887723865232</v>
       </c>
       <c r="C9">
-        <v>-0.01033748658610136</v>
+        <v>-0.04985870155643208</v>
       </c>
       <c r="D9">
-        <v>0.05534716938430753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0167320079038438</v>
+      </c>
+      <c r="E9">
+        <v>-0.02717060608801683</v>
+      </c>
+      <c r="F9">
+        <v>0.003193224994522193</v>
+      </c>
+      <c r="G9">
+        <v>-0.1024414805364065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1488519253802142</v>
+        <v>0.09663839249968274</v>
       </c>
       <c r="C10">
-        <v>0.09143278849827351</v>
+        <v>0.1819973721849413</v>
       </c>
       <c r="D10">
-        <v>-0.1150839444354063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01548813227979173</v>
+      </c>
+      <c r="E10">
+        <v>-0.01938237418693793</v>
+      </c>
+      <c r="F10">
+        <v>-0.02278006699651292</v>
+      </c>
+      <c r="G10">
+        <v>-0.05364996415946238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002601075441204474</v>
+        <v>0.03538062579424709</v>
       </c>
       <c r="C11">
-        <v>0.0004170253152187029</v>
+        <v>-0.0518525115571958</v>
       </c>
       <c r="D11">
-        <v>0.04844529184605215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.00264133026829104</v>
+      </c>
+      <c r="E11">
+        <v>-0.02150917283990068</v>
+      </c>
+      <c r="F11">
+        <v>0.01524717210701374</v>
+      </c>
+      <c r="G11">
+        <v>-0.09072226774724401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006352278660148246</v>
+        <v>0.03747677722993437</v>
       </c>
       <c r="C12">
-        <v>-0.00303512556445579</v>
+        <v>-0.04647331916573911</v>
       </c>
       <c r="D12">
-        <v>0.04228266116833795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006611971329705819</v>
+      </c>
+      <c r="E12">
+        <v>-0.0107248095268569</v>
+      </c>
+      <c r="F12">
+        <v>-0.001033021399091763</v>
+      </c>
+      <c r="G12">
+        <v>-0.08210026739957778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01389589797926754</v>
+        <v>0.01478572003906573</v>
       </c>
       <c r="C13">
-        <v>-0.01679291947413769</v>
+        <v>-0.04212206574879549</v>
       </c>
       <c r="D13">
-        <v>0.03469780621750904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02712885855757488</v>
+      </c>
+      <c r="E13">
+        <v>-0.04210231127291707</v>
+      </c>
+      <c r="F13">
+        <v>-0.005911405544205224</v>
+      </c>
+      <c r="G13">
+        <v>-0.1428430141966981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001306698314664593</v>
+        <v>0.009140633734082632</v>
       </c>
       <c r="C14">
-        <v>-0.007178580397328661</v>
+        <v>-0.02833427895918026</v>
       </c>
       <c r="D14">
-        <v>0.01664228543185073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01037024015036891</v>
+      </c>
+      <c r="E14">
+        <v>-0.008541979221864426</v>
+      </c>
+      <c r="F14">
+        <v>-0.01065383175402638</v>
+      </c>
+      <c r="G14">
+        <v>-0.1113117725581472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.006574418831911896</v>
+        <v>0.03422722965494452</v>
       </c>
       <c r="C16">
-        <v>0.002875148364836811</v>
+        <v>-0.04470776589179459</v>
       </c>
       <c r="D16">
-        <v>0.03720761741449929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002035988731130998</v>
+      </c>
+      <c r="E16">
+        <v>-0.01597512729994376</v>
+      </c>
+      <c r="F16">
+        <v>-0.002824161969783325</v>
+      </c>
+      <c r="G16">
+        <v>-0.09277632863633654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.008630224995458562</v>
+        <v>0.0211133811336332</v>
       </c>
       <c r="C19">
-        <v>-0.01006218412831157</v>
+        <v>-0.05152334981483972</v>
       </c>
       <c r="D19">
-        <v>0.04130860112363511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02026322430083401</v>
+      </c>
+      <c r="E19">
+        <v>-0.08747536804081524</v>
+      </c>
+      <c r="F19">
+        <v>0.004648764996084897</v>
+      </c>
+      <c r="G19">
+        <v>-0.1414963659498233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.001956584658902285</v>
+        <v>0.01590756248209793</v>
       </c>
       <c r="C20">
-        <v>-0.01128028569222641</v>
+        <v>-0.04167411882937193</v>
       </c>
       <c r="D20">
-        <v>0.03348280178424241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01461456186549938</v>
+      </c>
+      <c r="E20">
+        <v>-0.03902893261861201</v>
+      </c>
+      <c r="F20">
+        <v>-0.01943688320598491</v>
+      </c>
+      <c r="G20">
+        <v>-0.1124992636209407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.003881478242515603</v>
+        <v>0.01136220770131463</v>
       </c>
       <c r="C21">
-        <v>-0.01268154542740039</v>
+        <v>-0.03920785224022554</v>
       </c>
       <c r="D21">
-        <v>0.013146808415173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01980337111353714</v>
+      </c>
+      <c r="E21">
+        <v>-0.05002712317745322</v>
+      </c>
+      <c r="F21">
+        <v>-0.009544451546695571</v>
+      </c>
+      <c r="G21">
+        <v>-0.1445320157917318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009869970908667465</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006818209353428066</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00208685857968899</v>
+      </c>
+      <c r="E22">
+        <v>-0.0158450818280807</v>
+      </c>
+      <c r="F22">
+        <v>0.009143258572313484</v>
+      </c>
+      <c r="G22">
+        <v>-0.002394690285867601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009957571446021158</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006824883418514532</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002084571339540442</v>
+      </c>
+      <c r="E23">
+        <v>-0.01581854925941828</v>
+      </c>
+      <c r="F23">
+        <v>0.00913381697577173</v>
+      </c>
+      <c r="G23">
+        <v>-0.002283623101869123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0003179256278507157</v>
+        <v>0.02931311138583747</v>
       </c>
       <c r="C24">
-        <v>-0.006313253042405313</v>
+        <v>-0.04846329708265021</v>
       </c>
       <c r="D24">
-        <v>0.03944098972049557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007371416330544498</v>
+      </c>
+      <c r="E24">
+        <v>-0.01685249444888092</v>
+      </c>
+      <c r="F24">
+        <v>0.006692248402670984</v>
+      </c>
+      <c r="G24">
+        <v>-0.09275678863937811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01461886549202787</v>
+        <v>0.04262163867595899</v>
       </c>
       <c r="C25">
-        <v>-0.003752871348891421</v>
+        <v>-0.05625849178910894</v>
       </c>
       <c r="D25">
-        <v>0.05384195680546438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01141597531176019</v>
+      </c>
+      <c r="E25">
+        <v>-0.00788743586265311</v>
+      </c>
+      <c r="F25">
+        <v>0.002875094284170575</v>
+      </c>
+      <c r="G25">
+        <v>-0.09844824975571558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008269518199337127</v>
+        <v>0.01444162397691399</v>
       </c>
       <c r="C26">
-        <v>-0.02050917393946191</v>
+        <v>-0.01167392338745658</v>
       </c>
       <c r="D26">
-        <v>-0.001068045181681832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0243245252957268</v>
+      </c>
+      <c r="E26">
+        <v>-0.01048727904338064</v>
+      </c>
+      <c r="F26">
+        <v>-0.008683258388916463</v>
+      </c>
+      <c r="G26">
+        <v>-0.08636867506118155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1986909254504055</v>
+        <v>0.1254994957654882</v>
       </c>
       <c r="C28">
-        <v>0.1052874897911388</v>
+        <v>0.2419221038824665</v>
       </c>
       <c r="D28">
-        <v>-0.1431850807148053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00695886667608615</v>
+      </c>
+      <c r="E28">
+        <v>-0.006511678802870126</v>
+      </c>
+      <c r="F28">
+        <v>-0.01956901474482862</v>
+      </c>
+      <c r="G28">
+        <v>-0.04763938845198148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005503005335820082</v>
+        <v>0.009522866179466134</v>
       </c>
       <c r="C29">
-        <v>-0.004382190716621832</v>
+        <v>-0.02328759456020527</v>
       </c>
       <c r="D29">
-        <v>0.0150416672810082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009368074440985572</v>
+      </c>
+      <c r="E29">
+        <v>-0.004100037784554634</v>
+      </c>
+      <c r="F29">
+        <v>-0.01649780456951761</v>
+      </c>
+      <c r="G29">
+        <v>-0.1030496100918799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01149978711287537</v>
+        <v>0.04067212841835847</v>
       </c>
       <c r="C30">
-        <v>-0.02109102797030107</v>
+        <v>-0.06872882897842131</v>
       </c>
       <c r="D30">
-        <v>0.09757424860524126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02980441742618897</v>
+      </c>
+      <c r="E30">
+        <v>-0.07020645478480818</v>
+      </c>
+      <c r="F30">
+        <v>0.03153554582088796</v>
+      </c>
+      <c r="G30">
+        <v>-0.1388282670259023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02141485587032443</v>
+        <v>0.0535932796585326</v>
       </c>
       <c r="C31">
-        <v>0.006673834915040862</v>
+        <v>-0.03913328173192171</v>
       </c>
       <c r="D31">
-        <v>0.02834117623760197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003871887611463756</v>
+      </c>
+      <c r="E31">
+        <v>0.002686244927724809</v>
+      </c>
+      <c r="F31">
+        <v>-0.0383620798882649</v>
+      </c>
+      <c r="G31">
+        <v>-0.09649132549723767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004141001081096768</v>
+        <v>0.00279584075854425</v>
       </c>
       <c r="C32">
-        <v>0.006979967992199241</v>
+        <v>-0.02173394223457458</v>
       </c>
       <c r="D32">
-        <v>-0.003459855926656379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002416405911929844</v>
+      </c>
+      <c r="E32">
+        <v>-0.04219218227266853</v>
+      </c>
+      <c r="F32">
+        <v>0.03155493110696231</v>
+      </c>
+      <c r="G32">
+        <v>-0.09189490216746965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.007254206666495017</v>
+        <v>0.02814259333414387</v>
       </c>
       <c r="C33">
-        <v>-0.008869957882468249</v>
+        <v>-0.05128313503810966</v>
       </c>
       <c r="D33">
-        <v>0.04068881645887196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01663595200114117</v>
+      </c>
+      <c r="E33">
+        <v>-0.05052914096498393</v>
+      </c>
+      <c r="F33">
+        <v>0.008671856187440997</v>
+      </c>
+      <c r="G33">
+        <v>-0.1634479469331178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01349375885668987</v>
+        <v>0.04118840494703527</v>
       </c>
       <c r="C34">
-        <v>0.01398194162937607</v>
+        <v>-0.05772174646429135</v>
       </c>
       <c r="D34">
-        <v>0.05435999120781928</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004277765614905694</v>
+      </c>
+      <c r="E34">
+        <v>-0.01278047551827993</v>
+      </c>
+      <c r="F34">
+        <v>0.01868906175438474</v>
+      </c>
+      <c r="G34">
+        <v>-0.09494066827499677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01037382244226594</v>
+        <v>0.01565577381635031</v>
       </c>
       <c r="C36">
-        <v>-0.006345719836078671</v>
+        <v>-0.01060952877420382</v>
       </c>
       <c r="D36">
-        <v>0.0009990136511311321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01301875704493317</v>
+      </c>
+      <c r="E36">
+        <v>-0.01116588535494238</v>
+      </c>
+      <c r="F36">
+        <v>-0.009044963251379807</v>
+      </c>
+      <c r="G36">
+        <v>-0.09410746454574938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0174933168565959</v>
+        <v>0.03167076144719078</v>
       </c>
       <c r="C38">
-        <v>0.01858577001831015</v>
+        <v>-0.03039765498073617</v>
       </c>
       <c r="D38">
-        <v>0.03650153934209627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0074726561291519</v>
+      </c>
+      <c r="E38">
+        <v>-0.006477622980371038</v>
+      </c>
+      <c r="F38">
+        <v>-0.01896113508011331</v>
+      </c>
+      <c r="G38">
+        <v>-0.08429954241391813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01268006078977717</v>
+        <v>0.03719404973257789</v>
       </c>
       <c r="C39">
-        <v>-0.01732661511003373</v>
+        <v>-0.07881584348035245</v>
       </c>
       <c r="D39">
-        <v>0.09597422592123599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01199600830817993</v>
+      </c>
+      <c r="E39">
+        <v>-0.03325910444274113</v>
+      </c>
+      <c r="F39">
+        <v>0.01741570658314827</v>
+      </c>
+      <c r="G39">
+        <v>-0.09220293574303698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0151848957563003</v>
+        <v>0.01385898062815038</v>
       </c>
       <c r="C40">
-        <v>-0.003304115513105975</v>
+        <v>-0.03808854577433656</v>
       </c>
       <c r="D40">
-        <v>0.0271827488065134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0149733674593408</v>
+      </c>
+      <c r="E40">
+        <v>-0.0338733472982326</v>
+      </c>
+      <c r="F40">
+        <v>-0.01345480078468931</v>
+      </c>
+      <c r="G40">
+        <v>-0.1228450254325115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01221701759709152</v>
+        <v>0.01997182602176363</v>
       </c>
       <c r="C41">
-        <v>0.003230947437302342</v>
+        <v>-0.003817753578814593</v>
       </c>
       <c r="D41">
-        <v>-0.01174174342286073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004846208856766406</v>
+      </c>
+      <c r="E41">
+        <v>-0.008602690661560178</v>
+      </c>
+      <c r="F41">
+        <v>-0.01605145583515736</v>
+      </c>
+      <c r="G41">
+        <v>-0.08737241068252462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.03154831087126829</v>
+        <v>0.006963154309230484</v>
       </c>
       <c r="C42">
-        <v>-0.08726542864834214</v>
+        <v>-0.02739693336964394</v>
       </c>
       <c r="D42">
-        <v>0.09720439328619566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08725747548952263</v>
+      </c>
+      <c r="E42">
+        <v>-0.006589110005992179</v>
+      </c>
+      <c r="F42">
+        <v>-0.03954026610957498</v>
+      </c>
+      <c r="G42">
+        <v>0.02001607220928432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0133608021117179</v>
+        <v>0.03570722528478038</v>
       </c>
       <c r="C43">
-        <v>0.003043992395279047</v>
+        <v>-0.01903613372512413</v>
       </c>
       <c r="D43">
-        <v>-0.01004083937148314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006162564196758114</v>
+      </c>
+      <c r="E43">
+        <v>-0.0221595653378605</v>
+      </c>
+      <c r="F43">
+        <v>-0.01112094029040876</v>
+      </c>
+      <c r="G43">
+        <v>-0.1199387556713692</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002704827669948469</v>
+        <v>0.01388737130388016</v>
       </c>
       <c r="C44">
-        <v>-0.004866615843755256</v>
+        <v>-0.05862070996308295</v>
       </c>
       <c r="D44">
-        <v>0.04445939856354719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007143997864067915</v>
+      </c>
+      <c r="E44">
+        <v>-0.02671659744979013</v>
+      </c>
+      <c r="F44">
+        <v>-0.0120396531145092</v>
+      </c>
+      <c r="G44">
+        <v>-0.1107303789159397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004421453062052787</v>
+        <v>0.009518454443704798</v>
       </c>
       <c r="C46">
-        <v>-0.008468378743898821</v>
+        <v>-0.0153549201656657</v>
       </c>
       <c r="D46">
-        <v>-0.005568354371983221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01257386759659196</v>
+      </c>
+      <c r="E46">
+        <v>0.0008938448116669198</v>
+      </c>
+      <c r="F46">
+        <v>-0.02054382152720109</v>
+      </c>
+      <c r="G46">
+        <v>-0.1104205689816199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02549595040867382</v>
+        <v>0.0793284944837175</v>
       </c>
       <c r="C47">
-        <v>0.01643379803478614</v>
+        <v>-0.06937640210599931</v>
       </c>
       <c r="D47">
-        <v>0.07477145259943245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005161928209950363</v>
+      </c>
+      <c r="E47">
+        <v>0.01208615391937335</v>
+      </c>
+      <c r="F47">
+        <v>-0.05330629773536347</v>
+      </c>
+      <c r="G47">
+        <v>-0.08147071544853361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005629901085586774</v>
+        <v>0.01823030134548124</v>
       </c>
       <c r="C48">
-        <v>0.001747092788158344</v>
+        <v>-0.01361988973306704</v>
       </c>
       <c r="D48">
-        <v>0.01233508016222565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002603351409251279</v>
+      </c>
+      <c r="E48">
+        <v>-0.006668431083320401</v>
+      </c>
+      <c r="F48">
+        <v>-0.02069449621259735</v>
+      </c>
+      <c r="G48">
+        <v>-0.09978411929943402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03343309170847065</v>
+        <v>0.07507733568316434</v>
       </c>
       <c r="C50">
-        <v>0.01922027189421592</v>
+        <v>-0.07276186610398241</v>
       </c>
       <c r="D50">
-        <v>0.0641290292678542</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002025757111678783</v>
+      </c>
+      <c r="E50">
+        <v>0.007534068706113703</v>
+      </c>
+      <c r="F50">
+        <v>-0.0542924140346757</v>
+      </c>
+      <c r="G50">
+        <v>-0.09182870888132098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008238076305936315</v>
+        <v>0.01336281848755233</v>
       </c>
       <c r="C51">
-        <v>-0.002169394675675043</v>
+        <v>-0.03764357297089661</v>
       </c>
       <c r="D51">
-        <v>0.02536063298013898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01098826639429238</v>
+      </c>
+      <c r="E51">
+        <v>-0.02986667965385983</v>
+      </c>
+      <c r="F51">
+        <v>0.01387383531012762</v>
+      </c>
+      <c r="G51">
+        <v>-0.124741059086589</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04079755949123522</v>
+        <v>0.08192757534341466</v>
       </c>
       <c r="C53">
-        <v>0.02297203086226341</v>
+        <v>-0.08394074804187178</v>
       </c>
       <c r="D53">
-        <v>0.1129222696719205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003396134440882172</v>
+      </c>
+      <c r="E53">
+        <v>0.02899731869185235</v>
+      </c>
+      <c r="F53">
+        <v>-0.05944873238147717</v>
+      </c>
+      <c r="G53">
+        <v>-0.08942088138726002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0146637482844785</v>
+        <v>0.03206484249979674</v>
       </c>
       <c r="C54">
-        <v>0.01169767326838139</v>
+        <v>-0.01921557179391873</v>
       </c>
       <c r="D54">
-        <v>-0.0007144021559677297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009172517909326233</v>
+      </c>
+      <c r="E54">
+        <v>-0.01947888475274159</v>
+      </c>
+      <c r="F54">
+        <v>-0.01013898578538268</v>
+      </c>
+      <c r="G54">
+        <v>-0.1105955923767792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02448163105775978</v>
+        <v>0.07417261024754762</v>
       </c>
       <c r="C55">
-        <v>0.0151947724739636</v>
+        <v>-0.06711885665130365</v>
       </c>
       <c r="D55">
-        <v>0.09336263925332688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005179482200974123</v>
+      </c>
+      <c r="E55">
+        <v>0.02793609908826351</v>
+      </c>
+      <c r="F55">
+        <v>-0.05913871989450129</v>
+      </c>
+      <c r="G55">
+        <v>-0.06555147079247124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.05359811231845524</v>
+        <v>0.1373371207826928</v>
       </c>
       <c r="C56">
-        <v>0.03559277906957093</v>
+        <v>-0.1056725243005508</v>
       </c>
       <c r="D56">
-        <v>0.1533946977154892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01322201460333222</v>
+      </c>
+      <c r="E56">
+        <v>0.03894938866510467</v>
+      </c>
+      <c r="F56">
+        <v>-0.07372138981707319</v>
+      </c>
+      <c r="G56">
+        <v>-0.03685837161353771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01677889784430892</v>
+        <v>0.005195526981682284</v>
       </c>
       <c r="C57">
-        <v>-0.01607568701551093</v>
+        <v>-0.006317583294033637</v>
       </c>
       <c r="D57">
-        <v>0.02830371502994951</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02274948388771669</v>
+      </c>
+      <c r="E57">
+        <v>-0.02419392039934525</v>
+      </c>
+      <c r="F57">
+        <v>0.003590832482805497</v>
+      </c>
+      <c r="G57">
+        <v>-0.02218169003937083</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.003527592894131333</v>
+        <v>0.04720212914474871</v>
       </c>
       <c r="C58">
-        <v>-0.005416861383306219</v>
+        <v>-0.04558097398104242</v>
       </c>
       <c r="D58">
-        <v>0.1998887921480936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02487873465456052</v>
+      </c>
+      <c r="E58">
+        <v>-0.8594780827074688</v>
+      </c>
+      <c r="F58">
+        <v>-0.3941905726343617</v>
+      </c>
+      <c r="G58">
+        <v>0.2537951234165551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.222888494063934</v>
+        <v>0.1581132946425642</v>
       </c>
       <c r="C59">
-        <v>0.1244815238663444</v>
+        <v>0.2095299083091818</v>
       </c>
       <c r="D59">
-        <v>-0.1217108872148688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01159577468576794</v>
+      </c>
+      <c r="E59">
+        <v>-0.02485990769526133</v>
+      </c>
+      <c r="F59">
+        <v>-0.004853402391639033</v>
+      </c>
+      <c r="G59">
+        <v>-0.04092833939801111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2080083314331613</v>
+        <v>0.29002705496926</v>
       </c>
       <c r="C60">
-        <v>0.09546164133097261</v>
+        <v>-0.1104989692100217</v>
       </c>
       <c r="D60">
-        <v>0.1878569831131312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01291572657318757</v>
+      </c>
+      <c r="E60">
+        <v>-0.05407110509686914</v>
+      </c>
+      <c r="F60">
+        <v>0.3443611646295053</v>
+      </c>
+      <c r="G60">
+        <v>0.1648148311435141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.000176561084943898</v>
+        <v>0.03900125663878333</v>
       </c>
       <c r="C61">
-        <v>-0.004124916758708562</v>
+        <v>-0.06517454175152675</v>
       </c>
       <c r="D61">
-        <v>0.07637604091976763</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006191621950935177</v>
+      </c>
+      <c r="E61">
+        <v>-0.03003782757868932</v>
+      </c>
+      <c r="F61">
+        <v>0.01176040573517679</v>
+      </c>
+      <c r="G61">
+        <v>-0.1000438917374426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.004505012577188882</v>
+        <v>0.0149648106998978</v>
       </c>
       <c r="C63">
-        <v>-0.005755924581109238</v>
+        <v>-0.03044681363951432</v>
       </c>
       <c r="D63">
-        <v>0.02091416201439496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008891823302875926</v>
+      </c>
+      <c r="E63">
+        <v>-0.006585303779460611</v>
+      </c>
+      <c r="F63">
+        <v>-0.01474330997420371</v>
+      </c>
+      <c r="G63">
+        <v>-0.09543642719643926</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02517649371477585</v>
+        <v>0.04977797332176355</v>
       </c>
       <c r="C64">
-        <v>0.008227630101385566</v>
+        <v>-0.04569024116600381</v>
       </c>
       <c r="D64">
-        <v>0.05100074514051846</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006023383570737837</v>
+      </c>
+      <c r="E64">
+        <v>-0.005369244220592159</v>
+      </c>
+      <c r="F64">
+        <v>0.001536010884218509</v>
+      </c>
+      <c r="G64">
+        <v>-0.09734534546025354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03206479204755633</v>
+        <v>0.07487652514256564</v>
       </c>
       <c r="C65">
-        <v>-0.001310796967296283</v>
+        <v>-0.05891525308506764</v>
       </c>
       <c r="D65">
-        <v>0.1113249780048927</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01725739259711842</v>
+      </c>
+      <c r="E65">
+        <v>-0.04813606472478299</v>
+      </c>
+      <c r="F65">
+        <v>0.02125796605746511</v>
+      </c>
+      <c r="G65">
+        <v>-0.04530485486012826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.009590911622830937</v>
+        <v>0.05038110247785176</v>
       </c>
       <c r="C66">
-        <v>-0.01517684934790894</v>
+        <v>-0.1052202535794366</v>
       </c>
       <c r="D66">
-        <v>0.1376504417339924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01235345541816262</v>
+      </c>
+      <c r="E66">
+        <v>-0.04945698203240742</v>
+      </c>
+      <c r="F66">
+        <v>0.02787230424683169</v>
+      </c>
+      <c r="G66">
+        <v>-0.1064363893522502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04002258019125438</v>
+        <v>0.05503749650430419</v>
       </c>
       <c r="C67">
-        <v>0.02725864536745802</v>
+        <v>-0.03465702185257898</v>
       </c>
       <c r="D67">
-        <v>0.05920842591552702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006121908580383473</v>
+      </c>
+      <c r="E67">
+        <v>0.004325472711308891</v>
+      </c>
+      <c r="F67">
+        <v>-0.01757572745951387</v>
+      </c>
+      <c r="G67">
+        <v>-0.07098595515231046</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2308003486825621</v>
+        <v>0.1558104237587451</v>
       </c>
       <c r="C68">
-        <v>0.1068600203171047</v>
+        <v>0.2716791326823961</v>
       </c>
       <c r="D68">
-        <v>-0.1749299914395818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005265546811596994</v>
+      </c>
+      <c r="E68">
+        <v>-0.007500698400416724</v>
+      </c>
+      <c r="F68">
+        <v>-0.044706470089274</v>
+      </c>
+      <c r="G68">
+        <v>-0.02698404969483944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03255936862980996</v>
+        <v>0.08283363028425189</v>
       </c>
       <c r="C69">
-        <v>0.02480221595547959</v>
+        <v>-0.07233978127332089</v>
       </c>
       <c r="D69">
-        <v>0.07815562728543698</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009024629241710115</v>
+      </c>
+      <c r="E69">
+        <v>0.0248050972414283</v>
+      </c>
+      <c r="F69">
+        <v>-0.03541148118912674</v>
+      </c>
+      <c r="G69">
+        <v>-0.1006521768346674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1892263626558505</v>
+        <v>0.1407410869069634</v>
       </c>
       <c r="C71">
-        <v>0.09503367028212983</v>
+        <v>0.2299987480257562</v>
       </c>
       <c r="D71">
-        <v>-0.1233368643076697</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002847968765456774</v>
+      </c>
+      <c r="E71">
+        <v>-0.03257058872027926</v>
+      </c>
+      <c r="F71">
+        <v>-0.03137551657607295</v>
+      </c>
+      <c r="G71">
+        <v>-0.06988324517944625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.02311022800414043</v>
+        <v>0.08698979135575409</v>
       </c>
       <c r="C72">
-        <v>0.02049946786831949</v>
+        <v>-0.0693818908406106</v>
       </c>
       <c r="D72">
-        <v>0.0978996312240791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008500834215267766</v>
+      </c>
+      <c r="E72">
+        <v>0.008283414846795588</v>
+      </c>
+      <c r="F72">
+        <v>0.03073167946122039</v>
+      </c>
+      <c r="G72">
+        <v>-0.09060412009927274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2773269475277759</v>
+        <v>0.3768466039002514</v>
       </c>
       <c r="C73">
-        <v>0.1247097021530351</v>
+        <v>-0.1127694186985117</v>
       </c>
       <c r="D73">
-        <v>0.2818743563942342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02291002048524119</v>
+      </c>
+      <c r="E73">
+        <v>-0.1564751231411037</v>
+      </c>
+      <c r="F73">
+        <v>0.5679344341238819</v>
+      </c>
+      <c r="G73">
+        <v>0.2858308171045025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05130542704587756</v>
+        <v>0.1063529198163382</v>
       </c>
       <c r="C74">
-        <v>0.03521520915647656</v>
+        <v>-0.1092438342184882</v>
       </c>
       <c r="D74">
-        <v>0.1643282035617567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009391608450184717</v>
+      </c>
+      <c r="E74">
+        <v>0.01388082751619454</v>
+      </c>
+      <c r="F74">
+        <v>-0.06618668691535301</v>
+      </c>
+      <c r="G74">
+        <v>-0.07824616657580022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1292362664617092</v>
+        <v>0.2493770686526095</v>
       </c>
       <c r="C75">
-        <v>0.08332561301423877</v>
+        <v>-0.1499852349441872</v>
       </c>
       <c r="D75">
-        <v>0.2878496201946661</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03147252879446943</v>
+      </c>
+      <c r="E75">
+        <v>0.08644479652068758</v>
+      </c>
+      <c r="F75">
+        <v>-0.1563610820931025</v>
+      </c>
+      <c r="G75">
+        <v>0.02812716873552395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0534391188635001</v>
+        <v>0.1182938624704856</v>
       </c>
       <c r="C76">
-        <v>0.04168781124706161</v>
+        <v>-0.1106226546202847</v>
       </c>
       <c r="D76">
-        <v>0.188360343963547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01748930198380199</v>
+      </c>
+      <c r="E76">
+        <v>0.0340251397328331</v>
+      </c>
+      <c r="F76">
+        <v>-0.09320014029607862</v>
+      </c>
+      <c r="G76">
+        <v>-0.05585550518332315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01691159798794354</v>
+        <v>0.07005513038833849</v>
       </c>
       <c r="C77">
-        <v>-0.0008832542863760418</v>
+        <v>-0.05796727410824064</v>
       </c>
       <c r="D77">
-        <v>0.080806704235975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01025691705183734</v>
+      </c>
+      <c r="E77">
+        <v>-0.05337432422068229</v>
+      </c>
+      <c r="F77">
+        <v>0.0006574780476436866</v>
+      </c>
+      <c r="G77">
+        <v>-0.06803385212974894</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01285959381342382</v>
+        <v>0.04258815455435453</v>
       </c>
       <c r="C78">
-        <v>0.002595770518965539</v>
+        <v>-0.05070612672021518</v>
       </c>
       <c r="D78">
-        <v>0.06896890016584359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006452352758874177</v>
+      </c>
+      <c r="E78">
+        <v>-0.0369431385504696</v>
+      </c>
+      <c r="F78">
+        <v>0.03059391276597967</v>
+      </c>
+      <c r="G78">
+        <v>-0.1019751072526215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001030663946723314</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003721268929522044</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003922826797025409</v>
+      </c>
+      <c r="E79">
+        <v>-0.004192845531033427</v>
+      </c>
+      <c r="F79">
+        <v>0.001403500974940366</v>
+      </c>
+      <c r="G79">
+        <v>-0.002156750538465223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03901434465853375</v>
+        <v>0.04378660735616356</v>
       </c>
       <c r="C80">
-        <v>0.008838013683527126</v>
+        <v>-0.04974930750123796</v>
       </c>
       <c r="D80">
-        <v>0.08304089941926895</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.013397491706628</v>
+      </c>
+      <c r="E80">
+        <v>-0.02931148274562478</v>
+      </c>
+      <c r="F80">
+        <v>0.004637630523726108</v>
+      </c>
+      <c r="G80">
+        <v>-0.05333333588287162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06565271244325996</v>
+        <v>0.138708806747208</v>
       </c>
       <c r="C81">
-        <v>0.0420763021480823</v>
+        <v>-0.09741323675969443</v>
       </c>
       <c r="D81">
-        <v>0.1628550098254379</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01502907352420275</v>
+      </c>
+      <c r="E81">
+        <v>0.04905636223595878</v>
+      </c>
+      <c r="F81">
+        <v>-0.1214958560344327</v>
+      </c>
+      <c r="G81">
+        <v>-0.02273682605993515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.003535009309674046</v>
+        <v>0.143848638599593</v>
       </c>
       <c r="C82">
-        <v>0.001926504452957086</v>
+        <v>-0.08225355347667043</v>
       </c>
       <c r="D82">
-        <v>0.004216756070543827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01185287935328556</v>
+      </c>
+      <c r="E82">
+        <v>0.1224950388211362</v>
+      </c>
+      <c r="F82">
+        <v>-0.05406085786975146</v>
+      </c>
+      <c r="G82">
+        <v>-0.04896368237859315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01458579038969009</v>
+        <v>0.03492348536824173</v>
       </c>
       <c r="C83">
-        <v>0.003645253749315578</v>
+        <v>-0.03112220197142295</v>
       </c>
       <c r="D83">
-        <v>0.01905367665128648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.00619552238769273</v>
+      </c>
+      <c r="E83">
+        <v>-0.03147889262182731</v>
+      </c>
+      <c r="F83">
+        <v>0.02607507299098743</v>
+      </c>
+      <c r="G83">
+        <v>-0.06112286122397017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1161603168181397</v>
+        <v>0.2102275831881121</v>
       </c>
       <c r="C85">
-        <v>0.06307728347131558</v>
+        <v>-0.1449930040167513</v>
       </c>
       <c r="D85">
-        <v>0.2593813183650821</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01725038758824135</v>
+      </c>
+      <c r="E85">
+        <v>0.1113829171720524</v>
+      </c>
+      <c r="F85">
+        <v>-0.09392744409955558</v>
+      </c>
+      <c r="G85">
+        <v>0.06315090965884525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01168617510181473</v>
+        <v>0.01384990414686775</v>
       </c>
       <c r="C86">
-        <v>0.0006587753587812044</v>
+        <v>-0.0277335520959221</v>
       </c>
       <c r="D86">
-        <v>0.04131181241148926</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01157983296348618</v>
+      </c>
+      <c r="E86">
+        <v>-0.05285616076870351</v>
+      </c>
+      <c r="F86">
+        <v>0.007657005525504572</v>
+      </c>
+      <c r="G86">
+        <v>-0.1879998714532495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008490588957560056</v>
+        <v>0.02210115080837277</v>
       </c>
       <c r="C87">
-        <v>-0.01401656652908919</v>
+        <v>-0.01910256858737239</v>
       </c>
       <c r="D87">
-        <v>0.0316555666541811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01253576695741935</v>
+      </c>
+      <c r="E87">
+        <v>-0.09978507703187188</v>
+      </c>
+      <c r="F87">
+        <v>-0.009204080146007551</v>
+      </c>
+      <c r="G87">
+        <v>-0.1226607672519832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04448222136205987</v>
+        <v>0.09339644022239005</v>
       </c>
       <c r="C88">
-        <v>-0.001663099249015648</v>
+        <v>-0.0686131465413759</v>
       </c>
       <c r="D88">
-        <v>0.04492880197805614</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02196715083959783</v>
+      </c>
+      <c r="E88">
+        <v>0.004997491963921205</v>
+      </c>
+      <c r="F88">
+        <v>-0.02126621934601691</v>
+      </c>
+      <c r="G88">
+        <v>-0.1022748574765329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3410719331882074</v>
+        <v>0.2282601536762533</v>
       </c>
       <c r="C89">
-        <v>0.1679429187801408</v>
+        <v>0.3681059026423477</v>
       </c>
       <c r="D89">
-        <v>-0.2187545508073553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002696715004393473</v>
+      </c>
+      <c r="E89">
+        <v>0.02187536404216231</v>
+      </c>
+      <c r="F89">
+        <v>-0.02355802449442273</v>
+      </c>
+      <c r="G89">
+        <v>-0.07169324025772397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2879396348284796</v>
+        <v>0.2069659589077876</v>
       </c>
       <c r="C90">
-        <v>0.1452601020735111</v>
+        <v>0.3186897951175113</v>
       </c>
       <c r="D90">
-        <v>-0.1938900814592355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004781534780382683</v>
+      </c>
+      <c r="E90">
+        <v>0.0009412970080096148</v>
+      </c>
+      <c r="F90">
+        <v>-0.04986554648224417</v>
+      </c>
+      <c r="G90">
+        <v>-0.04561935510357639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1037037020385927</v>
+        <v>0.1864144155927039</v>
       </c>
       <c r="C91">
-        <v>0.06971172182486493</v>
+        <v>-0.1383942795894096</v>
       </c>
       <c r="D91">
-        <v>0.2112093784355936</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02253725830249504</v>
+      </c>
+      <c r="E91">
+        <v>0.07894871174736248</v>
+      </c>
+      <c r="F91">
+        <v>-0.1278402626494874</v>
+      </c>
+      <c r="G91">
+        <v>-0.02569397423840235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2448136687656309</v>
+        <v>0.1978950633432128</v>
       </c>
       <c r="C92">
-        <v>0.159106325142592</v>
+        <v>0.2577498999088066</v>
       </c>
       <c r="D92">
-        <v>-0.1098114404162343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03846298242968706</v>
+      </c>
+      <c r="E92">
+        <v>-0.03100760872503153</v>
+      </c>
+      <c r="F92">
+        <v>-0.06589807431093901</v>
+      </c>
+      <c r="G92">
+        <v>-0.1125930473428736</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3034776542428479</v>
+        <v>0.2307060530163866</v>
       </c>
       <c r="C93">
-        <v>0.159835269171935</v>
+        <v>0.3144911916350245</v>
       </c>
       <c r="D93">
-        <v>-0.1589004459275052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01154151261468114</v>
+      </c>
+      <c r="E93">
+        <v>-0.003616657933930476</v>
+      </c>
+      <c r="F93">
+        <v>-0.04399955106985896</v>
+      </c>
+      <c r="G93">
+        <v>-0.05709784252259387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1357323676931656</v>
+        <v>0.3202384752093741</v>
       </c>
       <c r="C94">
-        <v>0.06407392653424782</v>
+        <v>-0.1827527785442519</v>
       </c>
       <c r="D94">
-        <v>0.2783552143051473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02114362596395146</v>
+      </c>
+      <c r="E94">
+        <v>0.2881555611560705</v>
+      </c>
+      <c r="F94">
+        <v>-0.4416681788702868</v>
+      </c>
+      <c r="G94">
+        <v>0.3974728820773543</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0125203495221541</v>
+        <v>0.09608786153174539</v>
       </c>
       <c r="C95">
-        <v>0.01493418237436302</v>
+        <v>-0.08419933771445449</v>
       </c>
       <c r="D95">
-        <v>0.1360510454737186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009498445212429724</v>
+      </c>
+      <c r="E95">
+        <v>-0.09789087359519413</v>
+      </c>
+      <c r="F95">
+        <v>0.1590350385425739</v>
+      </c>
+      <c r="G95">
+        <v>-0.03206757453499715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1395136952956959</v>
+        <v>0.1924530388501093</v>
       </c>
       <c r="C98">
-        <v>0.08900543642228269</v>
+        <v>-0.04496070689760286</v>
       </c>
       <c r="D98">
-        <v>0.1222848475514399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01190887977879876</v>
+      </c>
+      <c r="E98">
+        <v>-0.1049997173589314</v>
+      </c>
+      <c r="F98">
+        <v>0.2295719286230201</v>
+      </c>
+      <c r="G98">
+        <v>0.0260388666993011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005140511179391855</v>
+        <v>0.009288887946813719</v>
       </c>
       <c r="C101">
-        <v>-0.004413281262200076</v>
+        <v>-0.02327055025873052</v>
       </c>
       <c r="D101">
-        <v>0.01532673767577304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009195803668024409</v>
+      </c>
+      <c r="E101">
+        <v>-0.003818483948780478</v>
+      </c>
+      <c r="F101">
+        <v>-0.0173808453984476</v>
+      </c>
+      <c r="G101">
+        <v>-0.1021367212188375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.06494081000340841</v>
+        <v>0.1154436324291248</v>
       </c>
       <c r="C102">
-        <v>0.02741930276634964</v>
+        <v>-0.08163167481867782</v>
       </c>
       <c r="D102">
-        <v>0.1279134437266606</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007151509535016229</v>
+      </c>
+      <c r="E102">
+        <v>0.04075313443876571</v>
+      </c>
+      <c r="F102">
+        <v>-0.03646348167909925</v>
+      </c>
+      <c r="G102">
+        <v>-0.0118946863678478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.4614283449365378</v>
+        <v>0.02152023366911086</v>
       </c>
       <c r="C104">
-        <v>-0.8771416501338072</v>
+        <v>0.03030049894003729</v>
       </c>
       <c r="D104">
-        <v>-0.02154792461872693</v>
+        <v>-0.9875734451203191</v>
+      </c>
+      <c r="E104">
+        <v>0.06019700745677615</v>
+      </c>
+      <c r="F104">
+        <v>-0.02934625168997791</v>
+      </c>
+      <c r="G104">
+        <v>0.04112178723587846</v>
       </c>
     </row>
   </sheetData>
